--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4027,28 +4027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>951.7672973714399</v>
+        <v>1124.349312426538</v>
       </c>
       <c r="AB2" t="n">
-        <v>1302.250005273329</v>
+        <v>1538.384332052865</v>
       </c>
       <c r="AC2" t="n">
-        <v>1177.965092489403</v>
+        <v>1391.563090537709</v>
       </c>
       <c r="AD2" t="n">
-        <v>951767.2973714399</v>
+        <v>1124349.312426538</v>
       </c>
       <c r="AE2" t="n">
-        <v>1302250.005273329</v>
+        <v>1538384.332052865</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.859085878570571e-07</v>
+        <v>1.133016443942398e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1177965.092489403</v>
+        <v>1391563.090537709</v>
       </c>
     </row>
     <row r="3">
@@ -4133,28 +4133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>685.7437473180905</v>
+        <v>815.1590129043223</v>
       </c>
       <c r="AB3" t="n">
-        <v>938.2648479596029</v>
+        <v>1115.336523733254</v>
       </c>
       <c r="AC3" t="n">
-        <v>848.7181677333224</v>
+        <v>1008.890371292794</v>
       </c>
       <c r="AD3" t="n">
-        <v>685743.7473180905</v>
+        <v>815159.0129043222</v>
       </c>
       <c r="AE3" t="n">
-        <v>938264.8479596028</v>
+        <v>1115336.523733254</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.009800336438135e-06</v>
+        <v>1.455793210508941e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.10416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>848718.1677333224</v>
+        <v>1008890.371292794</v>
       </c>
     </row>
     <row r="4">
@@ -4239,28 +4239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>608.1979371574515</v>
+        <v>729.0650862942205</v>
       </c>
       <c r="AB4" t="n">
-        <v>832.1632494181199</v>
+        <v>997.5390151493335</v>
       </c>
       <c r="AC4" t="n">
-        <v>752.7427568421099</v>
+        <v>902.3352915982813</v>
       </c>
       <c r="AD4" t="n">
-        <v>608197.9371574515</v>
+        <v>729065.0862942204</v>
       </c>
       <c r="AE4" t="n">
-        <v>832163.2494181199</v>
+        <v>997539.0151493335</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.097214285399367e-06</v>
+        <v>1.58181479003268e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.6953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>752742.7568421098</v>
+        <v>902335.2915982812</v>
       </c>
     </row>
     <row r="5">
@@ -4345,28 +4345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>575.393143826404</v>
+        <v>696.1749521086014</v>
       </c>
       <c r="AB5" t="n">
-        <v>787.2782839372406</v>
+        <v>952.5372825462562</v>
       </c>
       <c r="AC5" t="n">
-        <v>712.1415494702808</v>
+        <v>861.6284611945134</v>
       </c>
       <c r="AD5" t="n">
-        <v>575393.143826404</v>
+        <v>696174.9521086013</v>
       </c>
       <c r="AE5" t="n">
-        <v>787278.2839372406</v>
+        <v>952537.2825462562</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.141726541919813e-06</v>
+        <v>1.645986526254781e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.61458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>712141.5494702808</v>
+        <v>861628.4611945134</v>
       </c>
     </row>
     <row r="6">
@@ -4451,28 +4451,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>551.0740435363185</v>
+        <v>671.7705109639443</v>
       </c>
       <c r="AB6" t="n">
-        <v>754.0038180373612</v>
+        <v>919.1460495241791</v>
       </c>
       <c r="AC6" t="n">
-        <v>682.0427518948798</v>
+        <v>831.4240405871735</v>
       </c>
       <c r="AD6" t="n">
-        <v>551074.0435363186</v>
+        <v>671770.5109639443</v>
       </c>
       <c r="AE6" t="n">
-        <v>754003.8180373611</v>
+        <v>919146.0495241792</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.170553304794878e-06</v>
+        <v>1.687545044468884e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.96354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>682042.7518948797</v>
+        <v>831424.0405871735</v>
       </c>
     </row>
     <row r="7">
@@ -4557,28 +4557,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>539.4729838736868</v>
+        <v>651.7067652149722</v>
       </c>
       <c r="AB7" t="n">
-        <v>738.1307364043172</v>
+        <v>891.693947440444</v>
       </c>
       <c r="AC7" t="n">
-        <v>667.6845748948834</v>
+        <v>806.5919285970426</v>
       </c>
       <c r="AD7" t="n">
-        <v>539472.9838736868</v>
+        <v>651706.7652149722</v>
       </c>
       <c r="AE7" t="n">
-        <v>738130.7364043172</v>
+        <v>891693.947440444</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.188899730397957e-06</v>
+        <v>1.713994433388953e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.55989583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>667684.5748948834</v>
+        <v>806591.9285970426</v>
       </c>
     </row>
     <row r="8">
@@ -4663,28 +4663,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>530.0070514719741</v>
+        <v>642.0702406126672</v>
       </c>
       <c r="AB8" t="n">
-        <v>725.1790300848295</v>
+        <v>878.5088293461095</v>
       </c>
       <c r="AC8" t="n">
-        <v>655.9689612486939</v>
+        <v>794.6651796682019</v>
       </c>
       <c r="AD8" t="n">
-        <v>530007.0514719741</v>
+        <v>642070.2406126673</v>
       </c>
       <c r="AE8" t="n">
-        <v>725179.0300848295</v>
+        <v>878508.8293461094</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.20386163728291e-06</v>
+        <v>1.735564482113844e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.24739583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>655968.9612486939</v>
+        <v>794665.1796682018</v>
       </c>
     </row>
     <row r="9">
@@ -4769,28 +4769,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>512.0797906553553</v>
+        <v>624.228231142069</v>
       </c>
       <c r="AB9" t="n">
-        <v>700.6501609406031</v>
+        <v>854.0966048545323</v>
       </c>
       <c r="AC9" t="n">
-        <v>633.7810929491083</v>
+        <v>772.5828236193286</v>
       </c>
       <c r="AD9" t="n">
-        <v>512079.7906553553</v>
+        <v>624228.231142069</v>
       </c>
       <c r="AE9" t="n">
-        <v>700650.1609406031</v>
+        <v>854096.6048545323</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.217049589529398e-06</v>
+        <v>1.754577083564021e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.97395833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>633781.0929491082</v>
+        <v>772582.8236193286</v>
       </c>
     </row>
     <row r="10">
@@ -4875,28 +4875,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>504.6258923482105</v>
+        <v>616.7743328349241</v>
       </c>
       <c r="AB10" t="n">
-        <v>690.4514084339828</v>
+        <v>843.8978523479118</v>
       </c>
       <c r="AC10" t="n">
-        <v>624.5556950676806</v>
+        <v>763.3574257379012</v>
       </c>
       <c r="AD10" t="n">
-        <v>504625.8923482104</v>
+        <v>616774.3328349241</v>
       </c>
       <c r="AE10" t="n">
-        <v>690451.4084339828</v>
+        <v>843897.8523479118</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.225966045738527e-06</v>
+        <v>1.767431621181663e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.79166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>624555.6950676807</v>
+        <v>763357.4257379011</v>
       </c>
     </row>
     <row r="11">
@@ -4981,28 +4981,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>498.6913731818374</v>
+        <v>610.8398136685512</v>
       </c>
       <c r="AB11" t="n">
-        <v>682.3315374980434</v>
+        <v>835.7779814119725</v>
       </c>
       <c r="AC11" t="n">
-        <v>617.2107732175568</v>
+        <v>756.0125038877773</v>
       </c>
       <c r="AD11" t="n">
-        <v>498691.3731818374</v>
+        <v>610839.8136685512</v>
       </c>
       <c r="AE11" t="n">
-        <v>682331.5374980434</v>
+        <v>835777.9814119725</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.229117149372644e-06</v>
+        <v>1.771974455156484e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.7265625</v>
       </c>
       <c r="AH11" t="n">
-        <v>617210.7732175569</v>
+        <v>756012.5038877772</v>
       </c>
     </row>
     <row r="12">
@@ -5087,28 +5087,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>491.3711457971273</v>
+        <v>603.5195862838409</v>
       </c>
       <c r="AB12" t="n">
-        <v>672.3156794446431</v>
+        <v>825.7621233585721</v>
       </c>
       <c r="AC12" t="n">
-        <v>608.1508145994281</v>
+        <v>746.9525452696485</v>
       </c>
       <c r="AD12" t="n">
-        <v>491371.1457971273</v>
+        <v>603519.5862838409</v>
       </c>
       <c r="AE12" t="n">
-        <v>672315.6794446431</v>
+        <v>825762.1233585721</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.238453752732989e-06</v>
+        <v>1.785434703970768e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.54427083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>608150.8145994281</v>
+        <v>746952.5452696484</v>
       </c>
     </row>
     <row r="13">
@@ -5193,28 +5193,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>483.9804447098051</v>
+        <v>595.9582929959267</v>
       </c>
       <c r="AB13" t="n">
-        <v>662.2033961622487</v>
+        <v>815.4164283013309</v>
       </c>
       <c r="AC13" t="n">
-        <v>599.0036334408268</v>
+        <v>737.5942288283959</v>
       </c>
       <c r="AD13" t="n">
-        <v>483980.4447098051</v>
+        <v>595958.2929959267</v>
       </c>
       <c r="AE13" t="n">
-        <v>662203.3961622487</v>
+        <v>815416.4283013309</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.241674880892308e-06</v>
+        <v>1.790078489811697e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24.47916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>599003.6334408268</v>
+        <v>737594.2288283959</v>
       </c>
     </row>
     <row r="14">
@@ -5299,28 +5299,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>481.3973745904337</v>
+        <v>593.3752228765553</v>
       </c>
       <c r="AB14" t="n">
-        <v>658.6691256679138</v>
+        <v>811.882157806996</v>
       </c>
       <c r="AC14" t="n">
-        <v>595.8066687620914</v>
+        <v>734.3972641496605</v>
       </c>
       <c r="AD14" t="n">
-        <v>481397.3745904337</v>
+        <v>593375.2228765553</v>
       </c>
       <c r="AE14" t="n">
-        <v>658669.1256679138</v>
+        <v>811882.157806996</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.244195763799601e-06</v>
+        <v>1.793712756991553e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>24.42708333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>595806.6687620913</v>
+        <v>734397.2641496605</v>
       </c>
     </row>
     <row r="15">
@@ -5405,28 +5405,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>482.1619195706026</v>
+        <v>585.677081770384</v>
       </c>
       <c r="AB15" t="n">
-        <v>659.7152098391249</v>
+        <v>801.3492215275156</v>
       </c>
       <c r="AC15" t="n">
-        <v>596.7529161281903</v>
+        <v>724.8695765256251</v>
       </c>
       <c r="AD15" t="n">
-        <v>482161.9195706026</v>
+        <v>585677.081770384</v>
       </c>
       <c r="AE15" t="n">
-        <v>659715.2098391249</v>
+        <v>801349.2215275157</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.24470927698442e-06</v>
+        <v>1.794453070676339e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24.4140625</v>
       </c>
       <c r="AH15" t="n">
-        <v>596752.9161281904</v>
+        <v>724869.5765256251</v>
       </c>
     </row>
   </sheetData>
@@ -5702,28 +5702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>766.9758211512869</v>
+        <v>918.4041042867699</v>
       </c>
       <c r="AB2" t="n">
-        <v>1049.410155084354</v>
+        <v>1256.601012614685</v>
       </c>
       <c r="AC2" t="n">
-        <v>949.2559227395059</v>
+        <v>1136.672775621336</v>
       </c>
       <c r="AD2" t="n">
-        <v>766975.8211512869</v>
+        <v>918404.1042867699</v>
       </c>
       <c r="AE2" t="n">
-        <v>1049410.155084354</v>
+        <v>1256601.012614685</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.07713869941105e-07</v>
+        <v>1.32885895834849e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.63541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>949255.9227395059</v>
+        <v>1136672.775621336</v>
       </c>
     </row>
     <row r="3">
@@ -5808,28 +5808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>585.6868179515333</v>
+        <v>703.4454963755552</v>
       </c>
       <c r="AB3" t="n">
-        <v>801.3625430000942</v>
+        <v>962.4851619660778</v>
       </c>
       <c r="AC3" t="n">
-        <v>724.8816266155576</v>
+        <v>870.6269289644438</v>
       </c>
       <c r="AD3" t="n">
-        <v>585686.8179515332</v>
+        <v>703445.4963755552</v>
       </c>
       <c r="AE3" t="n">
-        <v>801362.5430000942</v>
+        <v>962485.1619660779</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.111775636137963e-06</v>
+        <v>1.627597707470726e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.28125</v>
       </c>
       <c r="AH3" t="n">
-        <v>724881.6266155576</v>
+        <v>870626.9289644437</v>
       </c>
     </row>
     <row r="4">
@@ -5914,28 +5914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>532.6382911242185</v>
+        <v>650.3968800396893</v>
       </c>
       <c r="AB4" t="n">
-        <v>728.7792082591311</v>
+        <v>889.9017047555664</v>
       </c>
       <c r="AC4" t="n">
-        <v>659.2255434709218</v>
+        <v>804.9707350385813</v>
       </c>
       <c r="AD4" t="n">
-        <v>532638.2911242185</v>
+        <v>650396.8800396894</v>
       </c>
       <c r="AE4" t="n">
-        <v>728779.2082591311</v>
+        <v>889901.7047555663</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.185736254983185e-06</v>
+        <v>1.735873271139098e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.51041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>659225.5434709218</v>
+        <v>804970.7350385813</v>
       </c>
     </row>
     <row r="5">
@@ -6020,28 +6020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>505.5965490247821</v>
+        <v>615.0230552398216</v>
       </c>
       <c r="AB5" t="n">
-        <v>691.7795037212186</v>
+        <v>841.5016770813777</v>
       </c>
       <c r="AC5" t="n">
-        <v>625.7570388046961</v>
+        <v>761.1899380757517</v>
       </c>
       <c r="AD5" t="n">
-        <v>505596.5490247821</v>
+        <v>615023.0552398216</v>
       </c>
       <c r="AE5" t="n">
-        <v>691779.5037212186</v>
+        <v>841501.6770813777</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.224056693150788e-06</v>
+        <v>1.791972951041712e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.69010416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>625757.0388046961</v>
+        <v>761189.9380757516</v>
       </c>
     </row>
     <row r="6">
@@ -6126,28 +6126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>489.5534370731085</v>
+        <v>590.5626092416959</v>
       </c>
       <c r="AB6" t="n">
-        <v>669.8286101767914</v>
+        <v>808.0338157480249</v>
       </c>
       <c r="AC6" t="n">
-        <v>605.9011077318764</v>
+        <v>730.9162024556158</v>
       </c>
       <c r="AD6" t="n">
-        <v>489553.4370731085</v>
+        <v>590562.6092416958</v>
       </c>
       <c r="AE6" t="n">
-        <v>669828.6101767913</v>
+        <v>808033.815748025</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.25368440432385e-06</v>
+        <v>1.835346805635604e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>605901.1077318764</v>
+        <v>730916.2024556159</v>
       </c>
     </row>
     <row r="7">
@@ -6232,28 +6232,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>470.3503352460004</v>
+        <v>579.691500606468</v>
       </c>
       <c r="AB7" t="n">
-        <v>643.5540790758806</v>
+        <v>793.159485313842</v>
       </c>
       <c r="AC7" t="n">
-        <v>582.1341810027005</v>
+        <v>717.4614572418174</v>
       </c>
       <c r="AD7" t="n">
-        <v>470350.3352460004</v>
+        <v>579691.5006064681</v>
       </c>
       <c r="AE7" t="n">
-        <v>643554.0790758806</v>
+        <v>793159.485313842</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.270997418921312e-06</v>
+        <v>1.860692407708807e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.73958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>582134.1810027006</v>
+        <v>717461.4572418174</v>
       </c>
     </row>
     <row r="8">
@@ -6338,28 +6338,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>463.3175782359095</v>
+        <v>572.6587435963772</v>
       </c>
       <c r="AB8" t="n">
-        <v>633.9315506713322</v>
+        <v>783.5369569092935</v>
       </c>
       <c r="AC8" t="n">
-        <v>573.4300132037789</v>
+        <v>708.7572894428956</v>
       </c>
       <c r="AD8" t="n">
-        <v>463317.5782359095</v>
+        <v>572658.7435963772</v>
       </c>
       <c r="AE8" t="n">
-        <v>633931.5506713322</v>
+        <v>783536.9569092935</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.278072332836313e-06</v>
+        <v>1.871049815529517e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.59635416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>573430.0132037789</v>
+        <v>708757.2894428957</v>
       </c>
     </row>
     <row r="9">
@@ -6444,28 +6444,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>451.3498970198087</v>
+        <v>552.2737283338246</v>
       </c>
       <c r="AB9" t="n">
-        <v>617.5568412546306</v>
+        <v>755.6452797036667</v>
       </c>
       <c r="AC9" t="n">
-        <v>558.6180830717583</v>
+        <v>683.527554763559</v>
       </c>
       <c r="AD9" t="n">
-        <v>451349.8970198088</v>
+        <v>552273.7283338245</v>
       </c>
       <c r="AE9" t="n">
-        <v>617556.8412546306</v>
+        <v>755645.2797036667</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.292511918232801e-06</v>
+        <v>1.892188825347893e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.32291666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>558618.0830717583</v>
+        <v>683527.554763559</v>
       </c>
     </row>
     <row r="10">
@@ -6550,28 +6550,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>443.8607407702649</v>
+        <v>544.7845720842806</v>
       </c>
       <c r="AB10" t="n">
-        <v>607.3098472757493</v>
+        <v>745.3982857247852</v>
       </c>
       <c r="AC10" t="n">
-        <v>549.349047816475</v>
+        <v>674.2585195082756</v>
       </c>
       <c r="AD10" t="n">
-        <v>443860.7407702649</v>
+        <v>544784.5720842807</v>
       </c>
       <c r="AE10" t="n">
-        <v>607309.8472757493</v>
+        <v>745398.2857247852</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.299007317014834e-06</v>
+        <v>1.901697844814687e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.20572916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>549349.047816475</v>
+        <v>674258.5195082757</v>
       </c>
     </row>
     <row r="11">
@@ -6656,28 +6656,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>445.2473321155844</v>
+        <v>546.1711634296001</v>
       </c>
       <c r="AB11" t="n">
-        <v>609.2070427265083</v>
+        <v>747.2954811755444</v>
       </c>
       <c r="AC11" t="n">
-        <v>551.0651775961442</v>
+        <v>675.9746492879448</v>
       </c>
       <c r="AD11" t="n">
-        <v>445247.3321155844</v>
+        <v>546171.1634296002</v>
       </c>
       <c r="AE11" t="n">
-        <v>609207.0427265083</v>
+        <v>747295.4811755444</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.298548534201233e-06</v>
+        <v>1.901026204034505e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.21875</v>
       </c>
       <c r="AH11" t="n">
-        <v>551065.1775961441</v>
+        <v>675974.6492879448</v>
       </c>
     </row>
   </sheetData>
@@ -6953,28 +6953,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.0797784167505</v>
+        <v>547.6512284955162</v>
       </c>
       <c r="AB2" t="n">
-        <v>600.768323662498</v>
+        <v>749.3205714945931</v>
       </c>
       <c r="AC2" t="n">
-        <v>543.4318380357864</v>
+        <v>677.8064678291756</v>
       </c>
       <c r="AD2" t="n">
-        <v>439079.7784167505</v>
+        <v>547651.2284955162</v>
       </c>
       <c r="AE2" t="n">
-        <v>600768.323662498</v>
+        <v>749320.5714945931</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.285441302641361e-06</v>
+        <v>1.988736360953329e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>543431.8380357864</v>
+        <v>677806.4678291756</v>
       </c>
     </row>
     <row r="3">
@@ -7059,28 +7059,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>370.2743010554113</v>
+        <v>471.1637137459578</v>
       </c>
       <c r="AB3" t="n">
-        <v>506.6256340532863</v>
+        <v>644.6669794232491</v>
       </c>
       <c r="AC3" t="n">
-        <v>458.2739945927831</v>
+        <v>583.1408677028817</v>
       </c>
       <c r="AD3" t="n">
-        <v>370274.3010554113</v>
+        <v>471163.7137459578</v>
       </c>
       <c r="AE3" t="n">
-        <v>506625.6340532863</v>
+        <v>644666.9794232491</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.422774544855727e-06</v>
+        <v>2.201207838101378e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.66145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>458273.9945927832</v>
+        <v>583140.8677028817</v>
       </c>
     </row>
     <row r="4">
@@ -7165,28 +7165,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>357.0876725419334</v>
+        <v>450.209886006791</v>
       </c>
       <c r="AB4" t="n">
-        <v>488.5831071681537</v>
+        <v>615.9970278928834</v>
       </c>
       <c r="AC4" t="n">
-        <v>441.9534211507221</v>
+        <v>557.2071361080446</v>
       </c>
       <c r="AD4" t="n">
-        <v>357087.6725419334</v>
+        <v>450209.886006791</v>
       </c>
       <c r="AE4" t="n">
-        <v>488583.1071681537</v>
+        <v>615997.0278928834</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.451712332208725e-06</v>
+        <v>2.245978167011914e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>441953.4211507221</v>
+        <v>557207.1361080445</v>
       </c>
     </row>
   </sheetData>
@@ -7462,28 +7462,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>539.6484815788745</v>
+        <v>659.9704642550432</v>
       </c>
       <c r="AB2" t="n">
-        <v>738.3708601069674</v>
+        <v>903.0007050357408</v>
       </c>
       <c r="AC2" t="n">
-        <v>667.9017815283684</v>
+        <v>816.8195851165783</v>
       </c>
       <c r="AD2" t="n">
-        <v>539648.4815788744</v>
+        <v>659970.4642550432</v>
       </c>
       <c r="AE2" t="n">
-        <v>738370.8601069674</v>
+        <v>903000.7050357407</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.13643030479293e-06</v>
+        <v>1.717480265185338e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.53125</v>
       </c>
       <c r="AH2" t="n">
-        <v>667901.7815283684</v>
+        <v>816819.5851165783</v>
       </c>
     </row>
     <row r="3">
@@ -7568,28 +7568,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>442.5149319370361</v>
+        <v>554.6447673923169</v>
       </c>
       <c r="AB3" t="n">
-        <v>605.4684522572303</v>
+        <v>758.8894399463569</v>
       </c>
       <c r="AC3" t="n">
-        <v>547.6833929541093</v>
+        <v>686.4620969058943</v>
       </c>
       <c r="AD3" t="n">
-        <v>442514.9319370361</v>
+        <v>554644.7673923169</v>
       </c>
       <c r="AE3" t="n">
-        <v>605468.4522572303</v>
+        <v>758889.4399463569</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.298976337772975e-06</v>
+        <v>1.963135104421836e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.83333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>547683.3929541094</v>
+        <v>686462.0969058943</v>
       </c>
     </row>
     <row r="4">
@@ -7674,28 +7674,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>411.78395982066</v>
+        <v>515.9776706187679</v>
       </c>
       <c r="AB4" t="n">
-        <v>563.420980452799</v>
+        <v>705.9834122688717</v>
       </c>
       <c r="AC4" t="n">
-        <v>509.6488728446957</v>
+        <v>638.6053462558722</v>
       </c>
       <c r="AD4" t="n">
-        <v>411783.9598206599</v>
+        <v>515977.6706187679</v>
       </c>
       <c r="AE4" t="n">
-        <v>563420.980452799</v>
+        <v>705983.4122688717</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.35333878362691e-06</v>
+        <v>2.045292740950503e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.8046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>509648.8728446957</v>
+        <v>638605.3462558722</v>
       </c>
     </row>
     <row r="5">
@@ -7780,28 +7780,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>394.1894212879118</v>
+        <v>490.3617560828262</v>
       </c>
       <c r="AB5" t="n">
-        <v>539.3473566160355</v>
+        <v>670.9345879064051</v>
       </c>
       <c r="AC5" t="n">
-        <v>487.8728018793697</v>
+        <v>606.9015324992254</v>
       </c>
       <c r="AD5" t="n">
-        <v>394189.4212879118</v>
+        <v>490361.7560828262</v>
       </c>
       <c r="AE5" t="n">
-        <v>539347.3566160356</v>
+        <v>670934.5879064051</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.386255257479672e-06</v>
+        <v>2.095039209346476e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.20572916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>487872.8018793697</v>
+        <v>606901.5324992253</v>
       </c>
     </row>
     <row r="6">
@@ -7886,28 +7886,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>388.8620152565775</v>
+        <v>485.034350051492</v>
       </c>
       <c r="AB6" t="n">
-        <v>532.0581646553974</v>
+        <v>663.6453959457669</v>
       </c>
       <c r="AC6" t="n">
-        <v>481.2792801690097</v>
+        <v>600.3080107888654</v>
       </c>
       <c r="AD6" t="n">
-        <v>388862.0152565775</v>
+        <v>485034.350051492</v>
       </c>
       <c r="AE6" t="n">
-        <v>532058.1646553974</v>
+        <v>663645.3959457669</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.394890354379183e-06</v>
+        <v>2.108089379207597e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.0625</v>
       </c>
       <c r="AH6" t="n">
-        <v>481279.2801690097</v>
+        <v>600308.0107888654</v>
       </c>
     </row>
     <row r="7">
@@ -7992,28 +7992,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>390.3080051949894</v>
+        <v>486.4803399899038</v>
       </c>
       <c r="AB7" t="n">
-        <v>534.0366318817064</v>
+        <v>665.6238631720759</v>
       </c>
       <c r="AC7" t="n">
-        <v>483.0689252600359</v>
+        <v>602.0976558798915</v>
       </c>
       <c r="AD7" t="n">
-        <v>390308.0051949894</v>
+        <v>486480.3399899038</v>
       </c>
       <c r="AE7" t="n">
-        <v>534036.6318817064</v>
+        <v>665623.8631720758</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.394529484658009e-06</v>
+        <v>2.107543998974595e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.0625</v>
       </c>
       <c r="AH7" t="n">
-        <v>483068.9252600359</v>
+        <v>602097.6558798915</v>
       </c>
     </row>
   </sheetData>
@@ -8289,28 +8289,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>364.2989715516391</v>
+        <v>469.951652762472</v>
       </c>
       <c r="AB2" t="n">
-        <v>498.4499246132922</v>
+        <v>643.008584113287</v>
       </c>
       <c r="AC2" t="n">
-        <v>450.8785633870618</v>
+        <v>581.6407473137301</v>
       </c>
       <c r="AD2" t="n">
-        <v>364298.9715516391</v>
+        <v>469951.6527624719</v>
       </c>
       <c r="AE2" t="n">
-        <v>498449.9246132922</v>
+        <v>643008.584113287</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.411462013723829e-06</v>
+        <v>2.230798761515197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.8203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>450878.5633870618</v>
+        <v>581640.7473137301</v>
       </c>
     </row>
     <row r="3">
@@ -8395,28 +8395,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>332.4012866862913</v>
+        <v>423.0217749859646</v>
       </c>
       <c r="AB3" t="n">
-        <v>454.8061049539843</v>
+        <v>578.7970549393838</v>
       </c>
       <c r="AC3" t="n">
-        <v>411.4000486215526</v>
+        <v>523.5574763627369</v>
       </c>
       <c r="AD3" t="n">
-        <v>332401.2866862913</v>
+        <v>423021.7749859646</v>
       </c>
       <c r="AE3" t="n">
-        <v>454806.1049539843</v>
+        <v>578797.0549393838</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.493593717569651e-06</v>
+        <v>2.360606933069889e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.40104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>411400.0486215526</v>
+        <v>523557.4763627369</v>
       </c>
     </row>
   </sheetData>
@@ -8692,28 +8692,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>809.602961060404</v>
+        <v>962.1382488043299</v>
       </c>
       <c r="AB2" t="n">
-        <v>1107.734488484696</v>
+        <v>1316.439998557895</v>
       </c>
       <c r="AC2" t="n">
-        <v>1002.013863618836</v>
+        <v>1190.800812730671</v>
       </c>
       <c r="AD2" t="n">
-        <v>809602.9610604041</v>
+        <v>962138.2488043299</v>
       </c>
       <c r="AE2" t="n">
-        <v>1107734.488484696</v>
+        <v>1316439.998557895</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.764439884235883e-07</v>
+        <v>1.277755673719013e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1002013.863618836</v>
+        <v>1190800.812730671</v>
       </c>
     </row>
     <row r="3">
@@ -8798,28 +8798,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>605.795037013856</v>
+        <v>732.8224359458893</v>
       </c>
       <c r="AB3" t="n">
-        <v>828.8754954331802</v>
+        <v>1002.679986705314</v>
       </c>
       <c r="AC3" t="n">
-        <v>749.768781483101</v>
+        <v>906.9856160443585</v>
       </c>
       <c r="AD3" t="n">
-        <v>605795.037013856</v>
+        <v>732822.4359458893</v>
       </c>
       <c r="AE3" t="n">
-        <v>828875.4954331801</v>
+        <v>1002679.986705314</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.084918297033491e-06</v>
+        <v>1.581687509831066e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.72395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>749768.781483101</v>
+        <v>906985.6160443585</v>
       </c>
     </row>
     <row r="4">
@@ -8904,28 +8904,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>547.6790420275306</v>
+        <v>666.2322583071236</v>
       </c>
       <c r="AB4" t="n">
-        <v>749.3586271961416</v>
+        <v>911.568367908654</v>
       </c>
       <c r="AC4" t="n">
-        <v>677.84089154798</v>
+        <v>824.569562269691</v>
       </c>
       <c r="AD4" t="n">
-        <v>547679.0420275306</v>
+        <v>666232.2583071237</v>
       </c>
       <c r="AE4" t="n">
-        <v>749358.6271961416</v>
+        <v>911568.3679086539</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.165680555017699e-06</v>
+        <v>1.699429698407533e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.73177083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>677840.89154798</v>
+        <v>824569.562269691</v>
       </c>
     </row>
     <row r="5">
@@ -9010,28 +9010,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>514.4300651531465</v>
+        <v>624.5944396348707</v>
       </c>
       <c r="AB5" t="n">
-        <v>703.8659101952741</v>
+        <v>854.5976674703619</v>
       </c>
       <c r="AC5" t="n">
-        <v>636.6899356082459</v>
+        <v>773.0360655223492</v>
       </c>
       <c r="AD5" t="n">
-        <v>514430.0651531465</v>
+        <v>624594.4396348707</v>
       </c>
       <c r="AE5" t="n">
-        <v>703865.910195274</v>
+        <v>854597.6674703619</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.2144489940612e-06</v>
+        <v>1.770528537020522e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.65104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>636689.9356082459</v>
+        <v>773036.0655223492</v>
       </c>
     </row>
     <row r="6">
@@ -9116,28 +9116,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>506.1798292530948</v>
+        <v>616.1736115342269</v>
       </c>
       <c r="AB6" t="n">
-        <v>692.5775734621035</v>
+        <v>843.0759189623443</v>
       </c>
       <c r="AC6" t="n">
-        <v>626.478941889609</v>
+        <v>762.6139365210614</v>
       </c>
       <c r="AD6" t="n">
-        <v>506179.8292530948</v>
+        <v>616173.6115342269</v>
       </c>
       <c r="AE6" t="n">
-        <v>692577.5734621035</v>
+        <v>843075.9189623443</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.229189601740688e-06</v>
+        <v>1.792018666846627e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.3515625</v>
       </c>
       <c r="AH6" t="n">
-        <v>626478.941889609</v>
+        <v>762613.9365210615</v>
       </c>
     </row>
     <row r="7">
@@ -9222,28 +9222,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>486.4542652338168</v>
+        <v>596.5332988609694</v>
       </c>
       <c r="AB7" t="n">
-        <v>665.5881865404605</v>
+        <v>816.2031766933505</v>
       </c>
       <c r="AC7" t="n">
-        <v>602.065384175925</v>
+        <v>738.3058910580897</v>
       </c>
       <c r="AD7" t="n">
-        <v>486454.2652338168</v>
+        <v>596533.2988609694</v>
       </c>
       <c r="AE7" t="n">
-        <v>665588.1865404604</v>
+        <v>816203.1766933505</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.246418883443986e-06</v>
+        <v>1.817137000409607e-06</v>
       </c>
       <c r="AG7" t="n">
         <v>25</v>
       </c>
       <c r="AH7" t="n">
-        <v>602065.384175925</v>
+        <v>738305.8910580898</v>
       </c>
     </row>
     <row r="8">
@@ -9328,28 +9328,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>476.0051231675828</v>
+        <v>586.0841567947355</v>
       </c>
       <c r="AB8" t="n">
-        <v>651.2912093818259</v>
+        <v>801.9061995347161</v>
       </c>
       <c r="AC8" t="n">
-        <v>589.1328904513771</v>
+        <v>725.3733973335418</v>
       </c>
       <c r="AD8" t="n">
-        <v>476005.1231675828</v>
+        <v>586084.1567947355</v>
       </c>
       <c r="AE8" t="n">
-        <v>651291.2093818259</v>
+        <v>801906.1995347161</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.262882419293804e-06</v>
+        <v>1.841138963592009e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.67447916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>589132.890451377</v>
+        <v>725373.3973335418</v>
       </c>
     </row>
     <row r="9">
@@ -9434,28 +9434,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>467.8534312079395</v>
+        <v>577.7618726345</v>
       </c>
       <c r="AB9" t="n">
-        <v>640.137704815374</v>
+        <v>790.5192831934171</v>
       </c>
       <c r="AC9" t="n">
-        <v>579.0438607067053</v>
+        <v>715.073232306219</v>
       </c>
       <c r="AD9" t="n">
-        <v>467853.4312079395</v>
+        <v>577761.8726345</v>
       </c>
       <c r="AE9" t="n">
-        <v>640137.704815374</v>
+        <v>790519.2831934171</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.272071369535563e-06</v>
+        <v>1.854535408158932e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.4921875</v>
       </c>
       <c r="AH9" t="n">
-        <v>579043.8607067054</v>
+        <v>715073.2323062189</v>
       </c>
     </row>
     <row r="10">
@@ -9540,28 +9540,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>459.8156243997154</v>
+        <v>561.4205648829789</v>
       </c>
       <c r="AB10" t="n">
-        <v>629.140022937352</v>
+        <v>768.1603850001684</v>
       </c>
       <c r="AC10" t="n">
-        <v>569.0957821517783</v>
+        <v>694.8482359756231</v>
       </c>
       <c r="AD10" t="n">
-        <v>459815.6243997155</v>
+        <v>561420.5648829788</v>
       </c>
       <c r="AE10" t="n">
-        <v>629140.022937352</v>
+        <v>768160.3850001683</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.278771645753512e-06</v>
+        <v>1.864303648988979e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.36197916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>569095.7821517782</v>
+        <v>694848.2359756231</v>
       </c>
     </row>
     <row r="11">
@@ -9646,28 +9646,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>452.6335315674884</v>
+        <v>554.2384720507517</v>
       </c>
       <c r="AB11" t="n">
-        <v>619.3131666727255</v>
+        <v>758.3335287355418</v>
       </c>
       <c r="AC11" t="n">
-        <v>560.2067872569685</v>
+        <v>685.9592410808131</v>
       </c>
       <c r="AD11" t="n">
-        <v>452633.5315674884</v>
+        <v>554238.4720507518</v>
       </c>
       <c r="AE11" t="n">
-        <v>619313.1666727255</v>
+        <v>758333.5287355417</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.285759076666516e-06</v>
+        <v>1.874490528711743e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.23177083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>560206.7872569684</v>
+        <v>685959.2410808131</v>
       </c>
     </row>
     <row r="12">
@@ -9752,28 +9752,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>453.3114480314316</v>
+        <v>554.916388514695</v>
       </c>
       <c r="AB12" t="n">
-        <v>620.240721886256</v>
+        <v>759.2610839490725</v>
       </c>
       <c r="AC12" t="n">
-        <v>561.0458179027515</v>
+        <v>686.7982717265965</v>
       </c>
       <c r="AD12" t="n">
-        <v>453311.4480314316</v>
+        <v>554916.388514695</v>
       </c>
       <c r="AE12" t="n">
-        <v>620240.721886256</v>
+        <v>759261.0839490725</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.285543710645225e-06</v>
+        <v>1.874176549542206e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.23177083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>561045.8179027515</v>
+        <v>686798.2717265964</v>
       </c>
     </row>
   </sheetData>
@@ -10049,28 +10049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>331.5869435344928</v>
+        <v>420.8113768155694</v>
       </c>
       <c r="AB2" t="n">
-        <v>453.6918847274092</v>
+        <v>575.7726906467641</v>
       </c>
       <c r="AC2" t="n">
-        <v>410.3921680095839</v>
+        <v>520.821753153483</v>
       </c>
       <c r="AD2" t="n">
-        <v>331586.9435344928</v>
+        <v>420811.3768155694</v>
       </c>
       <c r="AE2" t="n">
-        <v>453691.8847274092</v>
+        <v>575772.6906467641</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.4893686963749e-06</v>
+        <v>2.386318500841012e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.0390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>410392.168009584</v>
+        <v>520821.7531534829</v>
       </c>
     </row>
     <row r="3">
@@ -10155,28 +10155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>319.0253486381964</v>
+        <v>415.5997135371941</v>
       </c>
       <c r="AB3" t="n">
-        <v>436.5045564118415</v>
+        <v>568.6418630269342</v>
       </c>
       <c r="AC3" t="n">
-        <v>394.8451741858873</v>
+        <v>514.3714817135102</v>
       </c>
       <c r="AD3" t="n">
-        <v>319025.3486381964</v>
+        <v>415599.7135371941</v>
       </c>
       <c r="AE3" t="n">
-        <v>436504.5564118415</v>
+        <v>568641.8630269342</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.509529743200287e-06</v>
+        <v>2.418621233638368e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.70052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>394845.1741858873</v>
+        <v>514371.4817135102</v>
       </c>
     </row>
   </sheetData>
@@ -10452,28 +10452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>643.9470429437458</v>
+        <v>783.740979208142</v>
       </c>
       <c r="AB2" t="n">
-        <v>881.0767530941665</v>
+        <v>1072.348983964317</v>
       </c>
       <c r="AC2" t="n">
-        <v>796.988024377848</v>
+        <v>970.0055019860133</v>
       </c>
       <c r="AD2" t="n">
-        <v>643947.0429437459</v>
+        <v>783740.979208142</v>
       </c>
       <c r="AE2" t="n">
-        <v>881076.7530941665</v>
+        <v>1072348.983964317</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.014464074632532e-06</v>
+        <v>1.506320079950361e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.92708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>796988.024377848</v>
+        <v>970005.5019860133</v>
       </c>
     </row>
     <row r="3">
@@ -10558,28 +10558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>519.1775876226853</v>
+        <v>634.2719749297137</v>
       </c>
       <c r="AB3" t="n">
-        <v>710.3616798840064</v>
+        <v>867.8388982034912</v>
       </c>
       <c r="AC3" t="n">
-        <v>642.5657581547556</v>
+        <v>785.0135717784927</v>
       </c>
       <c r="AD3" t="n">
-        <v>519177.5876226853</v>
+        <v>634271.9749297136</v>
       </c>
       <c r="AE3" t="n">
-        <v>710361.6798840064</v>
+        <v>867838.8982034912</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.196075957429636e-06</v>
+        <v>1.775985248639515e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.08333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>642565.7581547556</v>
+        <v>785013.5717784928</v>
       </c>
     </row>
     <row r="4">
@@ -10664,28 +10664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>471.695996768878</v>
+        <v>578.7277634545258</v>
       </c>
       <c r="AB4" t="n">
-        <v>645.3952725378781</v>
+        <v>791.840857625472</v>
       </c>
       <c r="AC4" t="n">
-        <v>583.7996535448165</v>
+        <v>716.2686775293198</v>
       </c>
       <c r="AD4" t="n">
-        <v>471695.9967688781</v>
+        <v>578727.7634545257</v>
       </c>
       <c r="AE4" t="n">
-        <v>645395.2725378781</v>
+        <v>791840.857625472</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.267352401842472e-06</v>
+        <v>1.881819592241491e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.55989583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>583799.6535448164</v>
+        <v>716268.6775293198</v>
       </c>
     </row>
     <row r="5">
@@ -10770,28 +10770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>447.3354545984892</v>
+        <v>554.2818804295653</v>
       </c>
       <c r="AB5" t="n">
-        <v>612.064104029081</v>
+        <v>758.3929219944771</v>
       </c>
       <c r="AC5" t="n">
-        <v>553.64956497791</v>
+        <v>686.0129659304747</v>
       </c>
       <c r="AD5" t="n">
-        <v>447335.4545984892</v>
+        <v>554281.8804295652</v>
       </c>
       <c r="AE5" t="n">
-        <v>612064.1040290811</v>
+        <v>758392.921994477</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.300266445806933e-06</v>
+        <v>1.930691786512142e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.90885416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>553649.56497791</v>
+        <v>686012.9659304747</v>
       </c>
     </row>
     <row r="6">
@@ -10876,28 +10876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>433.2073446700163</v>
+        <v>539.9831783005002</v>
       </c>
       <c r="AB6" t="n">
-        <v>592.7334007367238</v>
+        <v>738.8288069272728</v>
       </c>
       <c r="AC6" t="n">
-        <v>536.1637568769629</v>
+        <v>668.3160225468764</v>
       </c>
       <c r="AD6" t="n">
-        <v>433207.3446700163</v>
+        <v>539983.1783005001</v>
       </c>
       <c r="AE6" t="n">
-        <v>592733.4007367238</v>
+        <v>738828.8069272728</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.3234530587887e-06</v>
+        <v>1.965120271062593e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.47916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>536163.756876963</v>
+        <v>668316.0225468765</v>
       </c>
     </row>
     <row r="7">
@@ -10982,28 +10982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>423.4287081610406</v>
+        <v>522.1420106786948</v>
       </c>
       <c r="AB7" t="n">
-        <v>579.3538388621472</v>
+        <v>714.4177342903537</v>
       </c>
       <c r="AC7" t="n">
-        <v>524.061121609363</v>
+        <v>646.2347084212691</v>
       </c>
       <c r="AD7" t="n">
-        <v>423428.7081610406</v>
+        <v>522142.0106786948</v>
       </c>
       <c r="AE7" t="n">
-        <v>579353.8388621472</v>
+        <v>714417.7342903537</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.334449285116963e-06</v>
+        <v>1.98144794292021e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.27083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>524061.121609363</v>
+        <v>646234.7084212692</v>
       </c>
     </row>
     <row r="8">
@@ -11088,28 +11088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>418.1303211704051</v>
+        <v>516.8436236880594</v>
       </c>
       <c r="AB8" t="n">
-        <v>572.104352033223</v>
+        <v>707.1682474614296</v>
       </c>
       <c r="AC8" t="n">
-        <v>517.5035156286726</v>
+        <v>639.6771024405789</v>
       </c>
       <c r="AD8" t="n">
-        <v>418130.3211704051</v>
+        <v>516843.6236880594</v>
       </c>
       <c r="AE8" t="n">
-        <v>572104.352033223</v>
+        <v>707168.2474614296</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.342982555774416e-06</v>
+        <v>1.994118511805194e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.11458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>517503.5156286726</v>
+        <v>639677.1024405789</v>
       </c>
     </row>
   </sheetData>
@@ -11385,28 +11385,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>724.0583048987857</v>
+        <v>874.3407333792829</v>
       </c>
       <c r="AB2" t="n">
-        <v>990.6885159604938</v>
+        <v>1196.311564600333</v>
       </c>
       <c r="AC2" t="n">
-        <v>896.1385944372885</v>
+        <v>1082.137267908703</v>
       </c>
       <c r="AD2" t="n">
-        <v>724058.3048987857</v>
+        <v>874340.733379283</v>
       </c>
       <c r="AE2" t="n">
-        <v>990688.5159604937</v>
+        <v>1196311.564600333</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.425397087198662e-07</v>
+        <v>1.385950425979869e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>896138.5944372885</v>
+        <v>1082137.267908703</v>
       </c>
     </row>
     <row r="3">
@@ -11491,28 +11491,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>558.3060170299731</v>
+        <v>683.5129271455305</v>
       </c>
       <c r="AB3" t="n">
-        <v>763.8989232235323</v>
+        <v>935.212541382666</v>
       </c>
       <c r="AC3" t="n">
-        <v>690.9934821299499</v>
+        <v>845.9571690121492</v>
       </c>
       <c r="AD3" t="n">
-        <v>558306.0170299731</v>
+        <v>683512.9271455305</v>
       </c>
       <c r="AE3" t="n">
-        <v>763898.9232235323</v>
+        <v>935212.541382666</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.137911880478465e-06</v>
+        <v>1.67323396657595e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>690993.48212995</v>
+        <v>845957.1690121492</v>
       </c>
     </row>
     <row r="4">
@@ -11597,28 +11597,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>514.0228291930755</v>
+        <v>622.5981574284621</v>
       </c>
       <c r="AB4" t="n">
-        <v>703.3087119887224</v>
+        <v>851.8662660857983</v>
       </c>
       <c r="AC4" t="n">
-        <v>636.1859156164949</v>
+        <v>770.5653452523826</v>
       </c>
       <c r="AD4" t="n">
-        <v>514022.8291930755</v>
+        <v>622598.1574284621</v>
       </c>
       <c r="AE4" t="n">
-        <v>703308.7119887224</v>
+        <v>851866.2660857983</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.21447632108904e-06</v>
+        <v>1.785817572441488e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.1328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>636185.9156164948</v>
+        <v>770565.3452523826</v>
       </c>
     </row>
     <row r="5">
@@ -11703,28 +11703,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>488.4642713732477</v>
+        <v>596.9542587540625</v>
       </c>
       <c r="AB5" t="n">
-        <v>668.3383656156423</v>
+        <v>816.7791525905204</v>
       </c>
       <c r="AC5" t="n">
-        <v>604.5530900200722</v>
+        <v>738.8268966240209</v>
       </c>
       <c r="AD5" t="n">
-        <v>488464.2713732477</v>
+        <v>596954.2587540625</v>
       </c>
       <c r="AE5" t="n">
-        <v>668338.3656156423</v>
+        <v>816779.1525905204</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.249894382918764e-06</v>
+        <v>1.837897795084795e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>604553.0900200722</v>
+        <v>738826.896624021</v>
       </c>
     </row>
     <row r="6">
@@ -11809,28 +11809,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>466.5713501505145</v>
+        <v>575.1465888773499</v>
       </c>
       <c r="AB6" t="n">
-        <v>638.3835049511806</v>
+        <v>786.940936578708</v>
       </c>
       <c r="AC6" t="n">
-        <v>577.4570792155156</v>
+        <v>711.8363980701766</v>
       </c>
       <c r="AD6" t="n">
-        <v>466571.3501505145</v>
+        <v>575146.58887735</v>
       </c>
       <c r="AE6" t="n">
-        <v>638383.5049511807</v>
+        <v>786940.936578708</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.27475771606833e-06</v>
+        <v>1.874457896320977e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.89583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>577457.0792155156</v>
+        <v>711836.3980701766</v>
       </c>
     </row>
     <row r="7">
@@ -11915,28 +11915,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>454.8104677463181</v>
+        <v>563.3857064731535</v>
       </c>
       <c r="AB7" t="n">
-        <v>622.2917467922464</v>
+        <v>770.8491784197738</v>
       </c>
       <c r="AC7" t="n">
-        <v>562.9010958703456</v>
+        <v>697.2804147250067</v>
       </c>
       <c r="AD7" t="n">
-        <v>454810.4677463181</v>
+        <v>563385.7064731536</v>
       </c>
       <c r="AE7" t="n">
-        <v>622291.7467922464</v>
+        <v>770849.1784197738</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.292357055807533e-06</v>
+        <v>1.900336713078354e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.55729166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>562901.0958703456</v>
+        <v>697280.4147250067</v>
       </c>
     </row>
     <row r="8">
@@ -12021,28 +12021,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>445.73286280285</v>
+        <v>545.9496849165897</v>
       </c>
       <c r="AB8" t="n">
-        <v>609.8713672329271</v>
+        <v>746.9924445031011</v>
       </c>
       <c r="AC8" t="n">
-        <v>551.6660999040557</v>
+        <v>675.7005340102048</v>
       </c>
       <c r="AD8" t="n">
-        <v>445732.86280285</v>
+        <v>545949.6849165898</v>
       </c>
       <c r="AE8" t="n">
-        <v>609871.3672329271</v>
+        <v>746992.4445031011</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.301961127631973e-06</v>
+        <v>1.914458948261742e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.375</v>
       </c>
       <c r="AH8" t="n">
-        <v>551666.0999040557</v>
+        <v>675700.5340102048</v>
       </c>
     </row>
     <row r="9">
@@ -12127,28 +12127,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>437.007245028239</v>
+        <v>537.2240671419788</v>
       </c>
       <c r="AB9" t="n">
-        <v>597.9325920466164</v>
+        <v>735.0536693167904</v>
       </c>
       <c r="AC9" t="n">
-        <v>540.8667446653503</v>
+        <v>664.9011787714994</v>
       </c>
       <c r="AD9" t="n">
-        <v>437007.245028239</v>
+        <v>537224.0671419788</v>
       </c>
       <c r="AE9" t="n">
-        <v>597932.5920466164</v>
+        <v>735053.6693167904</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.30910324195827e-06</v>
+        <v>1.924961016558018e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.24479166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>540866.7446653503</v>
+        <v>664901.1787714994</v>
       </c>
     </row>
     <row r="10">
@@ -12233,28 +12233,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>437.1165006798096</v>
+        <v>537.3333227935494</v>
       </c>
       <c r="AB10" t="n">
-        <v>598.0820804491145</v>
+        <v>735.2031577192885</v>
       </c>
       <c r="AC10" t="n">
-        <v>541.0019661045222</v>
+        <v>665.0364002106713</v>
       </c>
       <c r="AD10" t="n">
-        <v>437116.5006798096</v>
+        <v>537333.3227935494</v>
       </c>
       <c r="AE10" t="n">
-        <v>598082.0804491146</v>
+        <v>735203.1577192885</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.311662702723666e-06</v>
+        <v>1.928724556391154e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.19270833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>541001.9661045222</v>
+        <v>665036.4002106714</v>
       </c>
     </row>
   </sheetData>
@@ -12530,28 +12530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>901.337756249824</v>
+        <v>1064.395665208079</v>
       </c>
       <c r="AB2" t="n">
-        <v>1233.250082316398</v>
+        <v>1456.353106960325</v>
       </c>
       <c r="AC2" t="n">
-        <v>1115.550425337482</v>
+        <v>1317.360810436455</v>
       </c>
       <c r="AD2" t="n">
-        <v>901337.756249824</v>
+        <v>1064395.665208078</v>
       </c>
       <c r="AE2" t="n">
-        <v>1233250.082316398</v>
+        <v>1456353.106960326</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.156957424545995e-07</v>
+        <v>1.18012617398737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.55208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1115550.425337482</v>
+        <v>1317360.810436455</v>
       </c>
     </row>
     <row r="3">
@@ -12636,28 +12636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>655.5197582857843</v>
+        <v>784.2496864107219</v>
       </c>
       <c r="AB3" t="n">
-        <v>896.9110527773111</v>
+        <v>1073.045019601464</v>
       </c>
       <c r="AC3" t="n">
-        <v>811.3111207228126</v>
+        <v>970.6351089588436</v>
       </c>
       <c r="AD3" t="n">
-        <v>655519.7582857843</v>
+        <v>784249.6864107219</v>
       </c>
       <c r="AE3" t="n">
-        <v>896911.0527773111</v>
+        <v>1073045.019601465</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.034412971733147e-06</v>
+        <v>1.496560248041615e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.62239583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>811311.1207228126</v>
+        <v>970635.1089588436</v>
       </c>
     </row>
     <row r="4">
@@ -12742,28 +12742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>590.2359539278115</v>
+        <v>710.2132946438277</v>
       </c>
       <c r="AB4" t="n">
-        <v>807.586871536553</v>
+        <v>971.7451621309157</v>
       </c>
       <c r="AC4" t="n">
-        <v>730.5119139723967</v>
+        <v>879.0031677100412</v>
       </c>
       <c r="AD4" t="n">
-        <v>590235.9539278115</v>
+        <v>710213.2946438277</v>
       </c>
       <c r="AE4" t="n">
-        <v>807586.8715365529</v>
+        <v>971745.1621309157</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.120031732204816e-06</v>
+        <v>1.620431116746799e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.35677083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>730511.9139723966</v>
+        <v>879003.1677100413</v>
       </c>
     </row>
     <row r="5">
@@ -12848,28 +12848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>558.2841565674215</v>
+        <v>669.7648429296803</v>
       </c>
       <c r="AB5" t="n">
-        <v>763.8690127742535</v>
+        <v>916.4018060358704</v>
       </c>
       <c r="AC5" t="n">
-        <v>690.9664262919709</v>
+        <v>828.941703845819</v>
       </c>
       <c r="AD5" t="n">
-        <v>558284.1565674215</v>
+        <v>669764.8429296802</v>
       </c>
       <c r="AE5" t="n">
-        <v>763869.0127742535</v>
+        <v>916401.8060358705</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.164782180794295e-06</v>
+        <v>1.685174835427003e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.30208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>690966.426291971</v>
+        <v>828941.703845819</v>
       </c>
     </row>
     <row r="6">
@@ -12954,28 +12954,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>535.9034686782543</v>
+        <v>655.8807198857195</v>
       </c>
       <c r="AB6" t="n">
-        <v>733.2467682380301</v>
+        <v>897.4049363628444</v>
       </c>
       <c r="AC6" t="n">
-        <v>663.2667257956946</v>
+        <v>811.7578687521126</v>
       </c>
       <c r="AD6" t="n">
-        <v>535903.4686782543</v>
+        <v>655880.7198857195</v>
       </c>
       <c r="AE6" t="n">
-        <v>733246.7682380301</v>
+        <v>897404.9363628444</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.189910192936021e-06</v>
+        <v>1.721529352540808e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.7421875</v>
       </c>
       <c r="AH6" t="n">
-        <v>663266.7257956946</v>
+        <v>811757.8687521126</v>
       </c>
     </row>
     <row r="7">
@@ -13060,28 +13060,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>524.8811005780885</v>
+        <v>636.2764460857758</v>
       </c>
       <c r="AB7" t="n">
-        <v>718.1654779308221</v>
+        <v>870.5815040702414</v>
       </c>
       <c r="AC7" t="n">
-        <v>649.6247726686825</v>
+        <v>787.4944271905919</v>
       </c>
       <c r="AD7" t="n">
-        <v>524881.1005780885</v>
+        <v>636276.4460857757</v>
       </c>
       <c r="AE7" t="n">
-        <v>718165.4779308222</v>
+        <v>870581.5040702414</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.207744493688295e-06</v>
+        <v>1.747331528544801e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.36458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>649624.7726686825</v>
+        <v>787494.4271905918</v>
       </c>
     </row>
     <row r="8">
@@ -13166,28 +13166,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>515.135342810646</v>
+        <v>618.1193748191472</v>
       </c>
       <c r="AB8" t="n">
-        <v>704.8309022009191</v>
+        <v>845.73819812979</v>
       </c>
       <c r="AC8" t="n">
-        <v>637.5628301312469</v>
+        <v>765.0221315012983</v>
       </c>
       <c r="AD8" t="n">
-        <v>515135.3428106459</v>
+        <v>618119.3748191472</v>
       </c>
       <c r="AE8" t="n">
-        <v>704830.9022009191</v>
+        <v>845738.19812979</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.222143691657149e-06</v>
+        <v>1.768163892284172e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.06510416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>637562.8301312468</v>
+        <v>765022.1315012983</v>
       </c>
     </row>
     <row r="9">
@@ -13272,28 +13272,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>500.3164029429096</v>
+        <v>611.7969997966173</v>
       </c>
       <c r="AB9" t="n">
-        <v>684.5549749083957</v>
+        <v>837.0876457004642</v>
       </c>
       <c r="AC9" t="n">
-        <v>619.2220088820793</v>
+        <v>757.1971756547007</v>
       </c>
       <c r="AD9" t="n">
-        <v>500316.4029429096</v>
+        <v>611796.9997966173</v>
       </c>
       <c r="AE9" t="n">
-        <v>684554.9749083957</v>
+        <v>837087.6457004643</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.230166774185547e-06</v>
+        <v>1.779771467504966e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.90885416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>619222.0088820793</v>
+        <v>757197.1756547007</v>
       </c>
     </row>
     <row r="10">
@@ -13378,28 +13378,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>490.2679225756985</v>
+        <v>601.7485194294062</v>
       </c>
       <c r="AB10" t="n">
-        <v>670.8062007623107</v>
+        <v>823.3388715543792</v>
       </c>
       <c r="AC10" t="n">
-        <v>606.7853984439708</v>
+        <v>744.7605652165923</v>
       </c>
       <c r="AD10" t="n">
-        <v>490267.9225756985</v>
+        <v>601748.5194294062</v>
       </c>
       <c r="AE10" t="n">
-        <v>670806.2007623108</v>
+        <v>823338.8715543792</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.240848532155907e-06</v>
+        <v>1.795225541259336e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.6875</v>
       </c>
       <c r="AH10" t="n">
-        <v>606785.3984439708</v>
+        <v>744760.5652165924</v>
       </c>
     </row>
     <row r="11">
@@ -13484,28 +13484,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>483.5111982139888</v>
+        <v>594.9917950676964</v>
       </c>
       <c r="AB11" t="n">
-        <v>661.5613524049786</v>
+        <v>814.0940231970469</v>
       </c>
       <c r="AC11" t="n">
-        <v>598.4228654386363</v>
+        <v>736.3980322112578</v>
       </c>
       <c r="AD11" t="n">
-        <v>483511.1982139888</v>
+        <v>594991.7950676965</v>
       </c>
       <c r="AE11" t="n">
-        <v>661561.3524049786</v>
+        <v>814094.0231970469</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.247906962532796e-06</v>
+        <v>1.805437484268832e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.54427083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>598422.8654386364</v>
+        <v>736398.0322112578</v>
       </c>
     </row>
     <row r="12">
@@ -13590,28 +13590,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>474.9915728633003</v>
+        <v>577.8902640172299</v>
       </c>
       <c r="AB12" t="n">
-        <v>649.904425140823</v>
+        <v>790.6949539474962</v>
       </c>
       <c r="AC12" t="n">
-        <v>587.8784589519715</v>
+        <v>715.2321372900843</v>
       </c>
       <c r="AD12" t="n">
-        <v>474991.5728633003</v>
+        <v>577890.2640172299</v>
       </c>
       <c r="AE12" t="n">
-        <v>649904.425140823</v>
+        <v>790694.9539474961</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.256024157466219e-06</v>
+        <v>1.817181218729752e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.38802083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>587878.4589519715</v>
+        <v>715232.1372900843</v>
       </c>
     </row>
     <row r="13">
@@ -13696,28 +13696,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>469.7436361816892</v>
+        <v>572.6423273356189</v>
       </c>
       <c r="AB13" t="n">
-        <v>642.7239666504164</v>
+        <v>783.5144954570897</v>
       </c>
       <c r="AC13" t="n">
-        <v>581.3832933420525</v>
+        <v>708.7369716801653</v>
       </c>
       <c r="AD13" t="n">
-        <v>469743.6361816892</v>
+        <v>572642.3273356189</v>
       </c>
       <c r="AE13" t="n">
-        <v>642723.9666504164</v>
+        <v>783514.4954570896</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.259741597464714e-06</v>
+        <v>1.822559508714754e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24.32291666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>581383.2933420525</v>
+        <v>708736.9716801653</v>
       </c>
     </row>
     <row r="14">
@@ -13802,28 +13802,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>471.3075558812542</v>
+        <v>574.2062470351838</v>
       </c>
       <c r="AB14" t="n">
-        <v>644.8637905786287</v>
+        <v>785.6543193853021</v>
       </c>
       <c r="AC14" t="n">
-        <v>583.318895477818</v>
+        <v>710.6725738159308</v>
       </c>
       <c r="AD14" t="n">
-        <v>471307.5558812543</v>
+        <v>574206.2470351837</v>
       </c>
       <c r="AE14" t="n">
-        <v>644863.7905786287</v>
+        <v>785654.319385302</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.259059282528281e-06</v>
+        <v>1.821572354223836e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>24.3359375</v>
       </c>
       <c r="AH14" t="n">
-        <v>583318.8954778181</v>
+        <v>710672.5738159309</v>
       </c>
     </row>
   </sheetData>
@@ -14099,28 +14099,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>576.3998149503115</v>
+        <v>697.7517021022749</v>
       </c>
       <c r="AB2" t="n">
-        <v>788.6556557801662</v>
+        <v>954.6946614489007</v>
       </c>
       <c r="AC2" t="n">
-        <v>713.3874668776712</v>
+        <v>863.5799428825898</v>
       </c>
       <c r="AD2" t="n">
-        <v>576399.8149503114</v>
+        <v>697751.7021022749</v>
       </c>
       <c r="AE2" t="n">
-        <v>788655.6557801662</v>
+        <v>954694.6614489007</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.093368259668571e-06</v>
+        <v>1.641894293018311e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>713387.4668776712</v>
+        <v>863579.9428825898</v>
       </c>
     </row>
     <row r="3">
@@ -14205,28 +14205,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>471.0895317279441</v>
+        <v>576.2498004135095</v>
       </c>
       <c r="AB3" t="n">
-        <v>644.5654803135229</v>
+        <v>788.4503992727397</v>
       </c>
       <c r="AC3" t="n">
-        <v>583.049055525733</v>
+        <v>713.2017997632341</v>
       </c>
       <c r="AD3" t="n">
-        <v>471089.531727944</v>
+        <v>576249.8004135096</v>
       </c>
       <c r="AE3" t="n">
-        <v>644565.480313523</v>
+        <v>788450.3992727397</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.261516105632267e-06</v>
+        <v>1.89439932618509e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.27604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>583049.055525733</v>
+        <v>713201.7997632341</v>
       </c>
     </row>
     <row r="4">
@@ -14311,28 +14311,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>424.7308737273113</v>
+        <v>529.8910529043258</v>
       </c>
       <c r="AB4" t="n">
-        <v>581.1355192374092</v>
+        <v>725.0203157270774</v>
       </c>
       <c r="AC4" t="n">
-        <v>525.672760910214</v>
+        <v>655.8253943664886</v>
       </c>
       <c r="AD4" t="n">
-        <v>424730.8737273113</v>
+        <v>529891.0529043258</v>
       </c>
       <c r="AE4" t="n">
-        <v>581135.5192374092</v>
+        <v>725020.3157270774</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.335561228839714e-06</v>
+        <v>2.005591748450025e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.81770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>525672.760910214</v>
+        <v>655825.3943664886</v>
       </c>
     </row>
     <row r="5">
@@ -14417,28 +14417,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>412.6281373740225</v>
+        <v>517.6177243504449</v>
       </c>
       <c r="AB5" t="n">
-        <v>564.5760214237951</v>
+        <v>708.2274061386162</v>
       </c>
       <c r="AC5" t="n">
-        <v>510.6936783265299</v>
+        <v>640.6351765001535</v>
       </c>
       <c r="AD5" t="n">
-        <v>412628.1373740225</v>
+        <v>517617.7243504449</v>
       </c>
       <c r="AE5" t="n">
-        <v>564576.021423795</v>
+        <v>708227.4061386161</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.356611526843343e-06</v>
+        <v>2.037202657082923e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.42708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>510693.67832653</v>
+        <v>640635.1765001535</v>
       </c>
     </row>
     <row r="6">
@@ -14523,28 +14523,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>399.2606613909515</v>
+        <v>496.3251208433181</v>
       </c>
       <c r="AB6" t="n">
-        <v>546.2860510523379</v>
+        <v>679.0939266567957</v>
       </c>
       <c r="AC6" t="n">
-        <v>494.1492770571901</v>
+        <v>614.2821554109825</v>
       </c>
       <c r="AD6" t="n">
-        <v>399260.6613909515</v>
+        <v>496325.1208433181</v>
       </c>
       <c r="AE6" t="n">
-        <v>546286.051052338</v>
+        <v>679093.9266567957</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.374938267547834e-06</v>
+        <v>2.064723641624261e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.1015625</v>
       </c>
       <c r="AH6" t="n">
-        <v>494149.2770571901</v>
+        <v>614282.1554109824</v>
       </c>
     </row>
     <row r="7">
@@ -14629,28 +14629,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>400.1694642658869</v>
+        <v>497.2339237182535</v>
       </c>
       <c r="AB7" t="n">
-        <v>547.5295152393777</v>
+        <v>680.3373908438357</v>
       </c>
       <c r="AC7" t="n">
-        <v>495.2740667674319</v>
+        <v>615.4069451212242</v>
       </c>
       <c r="AD7" t="n">
-        <v>400169.4642658869</v>
+        <v>497233.9237182535</v>
       </c>
       <c r="AE7" t="n">
-        <v>547529.5152393777</v>
+        <v>680337.3908438357</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.37320740870352e-06</v>
+        <v>2.06212443752869e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.140625</v>
       </c>
       <c r="AH7" t="n">
-        <v>495274.0667674319</v>
+        <v>615406.9451212243</v>
       </c>
     </row>
   </sheetData>
@@ -14926,28 +14926,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>466.7480241228696</v>
+        <v>584.4502222949329</v>
       </c>
       <c r="AB2" t="n">
-        <v>638.6252380744623</v>
+        <v>799.6705782679834</v>
       </c>
       <c r="AC2" t="n">
-        <v>577.675741668786</v>
+        <v>723.3511406227921</v>
       </c>
       <c r="AD2" t="n">
-        <v>466748.0241228696</v>
+        <v>584450.2222949329</v>
       </c>
       <c r="AE2" t="n">
-        <v>638625.2380744624</v>
+        <v>799670.5782679834</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.233026996671461e-06</v>
+        <v>1.891151147428253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.99479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>577675.741668786</v>
+        <v>723351.1406227921</v>
       </c>
     </row>
     <row r="3">
@@ -15032,28 +15032,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>401.0433418179269</v>
+        <v>503.0292455143804</v>
       </c>
       <c r="AB3" t="n">
-        <v>548.7251930588355</v>
+        <v>688.2668057968496</v>
       </c>
       <c r="AC3" t="n">
-        <v>496.3556307739449</v>
+        <v>622.5795878401264</v>
       </c>
       <c r="AD3" t="n">
-        <v>401043.341817927</v>
+        <v>503029.2455143804</v>
       </c>
       <c r="AE3" t="n">
-        <v>548725.1930588356</v>
+        <v>688266.8057968495</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.376231426591953e-06</v>
+        <v>2.110790476244269e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.09114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>496355.630773945</v>
+        <v>622579.5878401264</v>
       </c>
     </row>
     <row r="4">
@@ -15138,28 +15138,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>371.0295558466445</v>
+        <v>465.2426084055892</v>
       </c>
       <c r="AB4" t="n">
-        <v>507.6590069781413</v>
+        <v>636.5654618758253</v>
       </c>
       <c r="AC4" t="n">
-        <v>459.2087438560381</v>
+        <v>575.8125476196328</v>
       </c>
       <c r="AD4" t="n">
-        <v>371029.5558466446</v>
+        <v>465242.6084055892</v>
       </c>
       <c r="AE4" t="n">
-        <v>507659.0069781414</v>
+        <v>636565.4618758253</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.42713912987789e-06</v>
+        <v>2.18887000065211e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.19270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>459208.7438560381</v>
+        <v>575812.5476196328</v>
       </c>
     </row>
     <row r="5">
@@ -15244,28 +15244,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>368.5151511568696</v>
+        <v>462.7282037158143</v>
       </c>
       <c r="AB5" t="n">
-        <v>504.2186875538853</v>
+        <v>633.1251424515692</v>
       </c>
       <c r="AC5" t="n">
-        <v>456.0967636891144</v>
+        <v>572.700567452709</v>
       </c>
       <c r="AD5" t="n">
-        <v>368515.1511568697</v>
+        <v>462728.2037158143</v>
       </c>
       <c r="AE5" t="n">
-        <v>504218.6875538853</v>
+        <v>633125.1424515692</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.431858698203357e-06</v>
+        <v>2.19610862322742e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.11458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>456096.7636891144</v>
+        <v>572700.5674527091</v>
       </c>
     </row>
   </sheetData>
@@ -27866,28 +27866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>402.2527448815143</v>
+        <v>509.5230452882224</v>
       </c>
       <c r="AB2" t="n">
-        <v>550.3799516855333</v>
+        <v>697.151909133647</v>
       </c>
       <c r="AC2" t="n">
-        <v>497.852461559779</v>
+        <v>630.6167093847807</v>
       </c>
       <c r="AD2" t="n">
-        <v>402252.7448815143</v>
+        <v>509523.0452882224</v>
       </c>
       <c r="AE2" t="n">
-        <v>550379.9516855334</v>
+        <v>697151.909133647</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.344792674791387e-06</v>
+        <v>2.101212027834442e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>497852.461559779</v>
+        <v>630616.7093847807</v>
       </c>
     </row>
     <row r="3">
@@ -27972,28 +27972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>344.0897406681144</v>
+        <v>436.0236104031907</v>
       </c>
       <c r="AB3" t="n">
-        <v>470.7987633501108</v>
+        <v>596.5867397577285</v>
       </c>
       <c r="AC3" t="n">
-        <v>425.8663901461899</v>
+        <v>539.6493386299983</v>
       </c>
       <c r="AD3" t="n">
-        <v>344089.7406681144</v>
+        <v>436023.6104031907</v>
       </c>
       <c r="AE3" t="n">
-        <v>470798.7633501109</v>
+        <v>596586.7397577285</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.481521034649333e-06</v>
+        <v>2.314847393095603e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.1015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>425866.39014619</v>
+        <v>539649.3386299983</v>
       </c>
     </row>
     <row r="4">
@@ -28078,28 +28078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>345.8968379721011</v>
+        <v>437.8307077071774</v>
       </c>
       <c r="AB4" t="n">
-        <v>473.2713136049319</v>
+        <v>599.0592900125495</v>
       </c>
       <c r="AC4" t="n">
-        <v>428.102963674937</v>
+        <v>541.8859121587453</v>
       </c>
       <c r="AD4" t="n">
-        <v>345896.8379721011</v>
+        <v>437830.7077071774</v>
       </c>
       <c r="AE4" t="n">
-        <v>473271.3136049319</v>
+        <v>599059.2900125495</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.474142914528613e-06</v>
+        <v>2.303319225943095e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.23177083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>428102.963674937</v>
+        <v>541885.9121587453</v>
       </c>
     </row>
   </sheetData>
@@ -28375,28 +28375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>308.301829821733</v>
+        <v>402.9240676902818</v>
       </c>
       <c r="AB2" t="n">
-        <v>421.832164878895</v>
+        <v>551.2984851691612</v>
       </c>
       <c r="AC2" t="n">
-        <v>381.5730951080143</v>
+        <v>498.6833314968992</v>
       </c>
       <c r="AD2" t="n">
-        <v>308301.8298217329</v>
+        <v>402924.0676902818</v>
       </c>
       <c r="AE2" t="n">
-        <v>421832.164878895</v>
+        <v>551298.4851691611</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.521767666106533e-06</v>
+        <v>2.479988445570449e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.18229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>381573.0951080143</v>
+        <v>498683.3314968992</v>
       </c>
     </row>
   </sheetData>
@@ -28672,28 +28672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>684.1875692231258</v>
+        <v>825.1545542353144</v>
       </c>
       <c r="AB2" t="n">
-        <v>936.1356164363399</v>
+        <v>1129.012864354478</v>
       </c>
       <c r="AC2" t="n">
-        <v>846.7921470782445</v>
+        <v>1021.261461159993</v>
       </c>
       <c r="AD2" t="n">
-        <v>684187.5692231258</v>
+        <v>825154.5542353145</v>
       </c>
       <c r="AE2" t="n">
-        <v>936135.6164363399</v>
+        <v>1129012.864354478</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.765435046016178e-07</v>
+        <v>1.442726628719787e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.82552083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>846792.1470782445</v>
+        <v>1021261.461159993</v>
       </c>
     </row>
     <row r="3">
@@ -28778,28 +28778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>538.3631456489126</v>
+        <v>654.3532923974171</v>
       </c>
       <c r="AB3" t="n">
-        <v>736.6122067825743</v>
+        <v>895.3150426880039</v>
       </c>
       <c r="AC3" t="n">
-        <v>666.31097160897</v>
+        <v>809.8674315964148</v>
       </c>
       <c r="AD3" t="n">
-        <v>538363.1456489125</v>
+        <v>654353.2923974171</v>
       </c>
       <c r="AE3" t="n">
-        <v>736612.2067825743</v>
+        <v>895315.042688004</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.166923450174257e-06</v>
+        <v>1.723990305921675e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.47395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>666310.97160897</v>
+        <v>809867.4315964148</v>
       </c>
     </row>
     <row r="4">
@@ -28884,28 +28884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>488.6776112899079</v>
+        <v>604.6676685298614</v>
       </c>
       <c r="AB4" t="n">
-        <v>668.6302667015098</v>
+        <v>827.3329801373912</v>
       </c>
       <c r="AC4" t="n">
-        <v>604.8171324759901</v>
+        <v>748.3734816822084</v>
       </c>
       <c r="AD4" t="n">
-        <v>488677.6112899079</v>
+        <v>604667.6685298614</v>
       </c>
       <c r="AE4" t="n">
-        <v>668630.2667015097</v>
+        <v>827332.9801373912</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.240017729031773e-06</v>
+        <v>1.831978390444164e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.84635416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>604817.1324759901</v>
+        <v>748373.4816822084</v>
       </c>
     </row>
     <row r="5">
@@ -28990,28 +28990,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>472.3822678819583</v>
+        <v>580.0752189912416</v>
       </c>
       <c r="AB5" t="n">
-        <v>646.3342589509394</v>
+        <v>793.6845057363495</v>
       </c>
       <c r="AC5" t="n">
-        <v>584.6490244124908</v>
+        <v>717.9363704520715</v>
       </c>
       <c r="AD5" t="n">
-        <v>472382.2678819583</v>
+        <v>580075.2189912417</v>
       </c>
       <c r="AE5" t="n">
-        <v>646334.2589509394</v>
+        <v>793684.5057363495</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.273228972608326e-06</v>
+        <v>1.881044044206656e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.18229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>584649.0244124908</v>
+        <v>717936.3704520715</v>
       </c>
     </row>
     <row r="6">
@@ -29096,28 +29096,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>450.6313751658979</v>
+        <v>558.4095776212017</v>
       </c>
       <c r="AB6" t="n">
-        <v>616.5737279551628</v>
+        <v>764.0406193932222</v>
       </c>
       <c r="AC6" t="n">
-        <v>557.7287967257835</v>
+        <v>691.1216550160765</v>
       </c>
       <c r="AD6" t="n">
-        <v>450631.3751658979</v>
+        <v>558409.5776212018</v>
       </c>
       <c r="AE6" t="n">
-        <v>616573.7279551628</v>
+        <v>764040.6193932222</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.297404985352712e-06</v>
+        <v>1.916761221371049e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.71354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>557728.7967257835</v>
+        <v>691121.6550160765</v>
       </c>
     </row>
     <row r="7">
@@ -29202,28 +29202,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>438.8422805646477</v>
+        <v>538.3233768892815</v>
       </c>
       <c r="AB7" t="n">
-        <v>600.4433686235852</v>
+        <v>736.5577934111732</v>
       </c>
       <c r="AC7" t="n">
-        <v>543.1378962497101</v>
+        <v>666.2617513733658</v>
       </c>
       <c r="AD7" t="n">
-        <v>438842.2805646477</v>
+        <v>538323.3768892814</v>
       </c>
       <c r="AE7" t="n">
-        <v>600443.3686235852</v>
+        <v>736557.7934111732</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.315007683023013e-06</v>
+        <v>1.942767109021295e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.375</v>
       </c>
       <c r="AH7" t="n">
-        <v>543137.8962497101</v>
+        <v>666261.7513733658</v>
       </c>
     </row>
     <row r="8">
@@ -29308,28 +29308,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>428.8682002983813</v>
+        <v>528.3492966230151</v>
       </c>
       <c r="AB8" t="n">
-        <v>586.7963919779136</v>
+        <v>722.9108167655016</v>
       </c>
       <c r="AC8" t="n">
-        <v>530.7933679014494</v>
+        <v>653.917223025105</v>
       </c>
       <c r="AD8" t="n">
-        <v>428868.2002983813</v>
+        <v>528349.2966230151</v>
       </c>
       <c r="AE8" t="n">
-        <v>586796.3919779136</v>
+        <v>722910.8167655016</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.323845960594534e-06</v>
+        <v>1.955824610652677e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.21875</v>
       </c>
       <c r="AH8" t="n">
-        <v>530793.3679014494</v>
+        <v>653917.2230251051</v>
       </c>
     </row>
     <row r="9">
@@ -29414,28 +29414,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>427.119895072327</v>
+        <v>526.6009913969609</v>
       </c>
       <c r="AB9" t="n">
-        <v>584.4042836378432</v>
+        <v>720.5187084254311</v>
       </c>
       <c r="AC9" t="n">
-        <v>528.6295590240102</v>
+        <v>651.7534141476658</v>
       </c>
       <c r="AD9" t="n">
-        <v>427119.8950723271</v>
+        <v>526600.9913969609</v>
       </c>
       <c r="AE9" t="n">
-        <v>584404.2836378431</v>
+        <v>720518.708425431</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.325938588988906e-06</v>
+        <v>1.958916219674035e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.1796875</v>
       </c>
       <c r="AH9" t="n">
-        <v>528629.5590240102</v>
+        <v>651753.4141476658</v>
       </c>
     </row>
   </sheetData>
@@ -29711,28 +29711,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>855.6572679096834</v>
+        <v>1017.622601028538</v>
       </c>
       <c r="AB2" t="n">
-        <v>1170.748022888504</v>
+        <v>1392.35613706792</v>
       </c>
       <c r="AC2" t="n">
-        <v>1059.013474739194</v>
+        <v>1259.471621530269</v>
       </c>
       <c r="AD2" t="n">
-        <v>855657.2679096834</v>
+        <v>1017622.601028538</v>
       </c>
       <c r="AE2" t="n">
-        <v>1170748.022888504</v>
+        <v>1392356.13706792</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.444725153614078e-07</v>
+        <v>1.226316821357965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.57552083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1059013.474739194</v>
+        <v>1259471.621530269</v>
       </c>
     </row>
     <row r="3">
@@ -29817,28 +29817,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>634.8787805447362</v>
+        <v>762.6429309547436</v>
       </c>
       <c r="AB3" t="n">
-        <v>868.6691564163393</v>
+        <v>1043.481703563819</v>
       </c>
       <c r="AC3" t="n">
-        <v>785.7645913127815</v>
+        <v>943.8932743114568</v>
       </c>
       <c r="AD3" t="n">
-        <v>634878.7805447362</v>
+        <v>762642.9309547436</v>
       </c>
       <c r="AE3" t="n">
-        <v>868669.1564163393</v>
+        <v>1043481.703563819</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.059196662359276e-06</v>
+        <v>1.538132574535595e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>785764.5913127814</v>
+        <v>943893.2743114568</v>
       </c>
     </row>
     <row r="4">
@@ -29923,28 +29923,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>575.4436761744792</v>
+        <v>694.6788437437799</v>
       </c>
       <c r="AB4" t="n">
-        <v>787.3474245252069</v>
+        <v>950.490241077865</v>
       </c>
       <c r="AC4" t="n">
-        <v>712.2040913775711</v>
+        <v>859.7767864908246</v>
       </c>
       <c r="AD4" t="n">
-        <v>575443.6761744792</v>
+        <v>694678.8437437799</v>
       </c>
       <c r="AE4" t="n">
-        <v>787347.4245252069</v>
+        <v>950490.241077865</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.138339271395281e-06</v>
+        <v>1.653061019193708e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.13541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>712204.0913775711</v>
+        <v>859776.7864908247</v>
       </c>
     </row>
     <row r="5">
@@ -30029,28 +30029,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>542.1886930629177</v>
+        <v>652.9802186460835</v>
       </c>
       <c r="AB5" t="n">
-        <v>741.8464895256566</v>
+        <v>893.4363426056907</v>
       </c>
       <c r="AC5" t="n">
-        <v>671.0457017534145</v>
+        <v>808.1680320131853</v>
       </c>
       <c r="AD5" t="n">
-        <v>542188.6930629177</v>
+        <v>652980.2186460835</v>
       </c>
       <c r="AE5" t="n">
-        <v>741846.4895256566</v>
+        <v>893436.3426056907</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.186047840571363e-06</v>
+        <v>1.722341925131197e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.04166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>671045.7017534145</v>
+        <v>808168.0320131853</v>
       </c>
     </row>
     <row r="6">
@@ -30135,28 +30135,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>521.1303626333782</v>
+        <v>632.0071395625647</v>
       </c>
       <c r="AB6" t="n">
-        <v>713.03355280399</v>
+        <v>864.7400505366733</v>
       </c>
       <c r="AC6" t="n">
-        <v>644.9826312732529</v>
+        <v>782.2104737837359</v>
       </c>
       <c r="AD6" t="n">
-        <v>521130.3626333782</v>
+        <v>632007.1395625647</v>
       </c>
       <c r="AE6" t="n">
-        <v>713033.55280399</v>
+        <v>864740.0505366733</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.209344615773208e-06</v>
+        <v>1.756172780243387e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.546875</v>
       </c>
       <c r="AH6" t="n">
-        <v>644982.6312732529</v>
+        <v>782210.4737837359</v>
       </c>
     </row>
     <row r="7">
@@ -30241,28 +30241,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>509.9648921579861</v>
+        <v>620.6710768865802</v>
       </c>
       <c r="AB7" t="n">
-        <v>697.7564635137658</v>
+        <v>849.2295494716022</v>
       </c>
       <c r="AC7" t="n">
-        <v>631.1635659433583</v>
+        <v>768.1802731711903</v>
       </c>
       <c r="AD7" t="n">
-        <v>509964.8921579861</v>
+        <v>620671.0768865802</v>
       </c>
       <c r="AE7" t="n">
-        <v>697756.4635137657</v>
+        <v>849229.5494716022</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.226995125702101e-06</v>
+        <v>1.781804303872174e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.16927083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>631163.5659433583</v>
+        <v>768180.2731711903</v>
       </c>
     </row>
     <row r="8">
@@ -30347,28 +30347,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>491.6058388990542</v>
+        <v>602.3972749736688</v>
       </c>
       <c r="AB8" t="n">
-        <v>672.6367969006285</v>
+        <v>824.2265275111141</v>
       </c>
       <c r="AC8" t="n">
-        <v>608.4412850561055</v>
+        <v>745.5635045346495</v>
       </c>
       <c r="AD8" t="n">
-        <v>491605.8388990542</v>
+        <v>602397.2749736689</v>
       </c>
       <c r="AE8" t="n">
-        <v>672636.7969006285</v>
+        <v>824226.5275111141</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.241608988761508e-06</v>
+        <v>1.803026103005687e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.8828125</v>
       </c>
       <c r="AH8" t="n">
-        <v>608441.2850561055</v>
+        <v>745563.5045346495</v>
       </c>
     </row>
     <row r="9">
@@ -30453,28 +30453,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>482.7511014740833</v>
+        <v>593.542537548698</v>
       </c>
       <c r="AB9" t="n">
-        <v>660.5213545123383</v>
+        <v>812.111085122824</v>
       </c>
       <c r="AC9" t="n">
-        <v>597.4821234852234</v>
+        <v>734.6043429637676</v>
       </c>
       <c r="AD9" t="n">
-        <v>482751.1014740833</v>
+        <v>593542.537548698</v>
       </c>
       <c r="AE9" t="n">
-        <v>660521.3545123383</v>
+        <v>812111.0851228239</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.252094909982705e-06</v>
+        <v>1.818253432903434e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.67447916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>597482.1234852234</v>
+        <v>734604.3429637676</v>
       </c>
     </row>
     <row r="10">
@@ -30559,28 +30559,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>475.4182537408505</v>
+        <v>586.2096898154651</v>
       </c>
       <c r="AB10" t="n">
-        <v>650.4882287413189</v>
+        <v>802.0779593518046</v>
       </c>
       <c r="AC10" t="n">
-        <v>588.4065451562096</v>
+        <v>725.5287646347538</v>
       </c>
       <c r="AD10" t="n">
-        <v>475418.2537408505</v>
+        <v>586209.6898154651</v>
       </c>
       <c r="AE10" t="n">
-        <v>650488.2287413189</v>
+        <v>802077.9593518046</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.259639079549087e-06</v>
+        <v>1.829208842196384e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.51822916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>588406.5451562096</v>
+        <v>725528.7646347538</v>
       </c>
     </row>
     <row r="11">
@@ -30665,28 +30665,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>467.5065084251499</v>
+        <v>569.7690511676092</v>
       </c>
       <c r="AB11" t="n">
-        <v>639.6630297588082</v>
+        <v>779.5831522440205</v>
       </c>
       <c r="AC11" t="n">
-        <v>578.6144879713277</v>
+        <v>705.1808303456767</v>
       </c>
       <c r="AD11" t="n">
-        <v>467506.50842515</v>
+        <v>569769.0511676092</v>
       </c>
       <c r="AE11" t="n">
-        <v>639663.0297588082</v>
+        <v>779583.1522440205</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.268772743961216e-06</v>
+        <v>1.842472466654829e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.34895833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>578614.4879713276</v>
+        <v>705180.8303456766</v>
       </c>
     </row>
     <row r="12">
@@ -30771,28 +30771,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>462.9951356910165</v>
+        <v>565.2576784334756</v>
       </c>
       <c r="AB12" t="n">
-        <v>633.4903705562483</v>
+        <v>773.4104930414607</v>
       </c>
       <c r="AC12" t="n">
-        <v>573.0309386996784</v>
+        <v>699.5972810740274</v>
       </c>
       <c r="AD12" t="n">
-        <v>462995.1356910164</v>
+        <v>565257.6784334756</v>
       </c>
       <c r="AE12" t="n">
-        <v>633490.3705562484</v>
+        <v>773410.4930414606</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.27083671488032e-06</v>
+        <v>1.845469701272712e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.30989583333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>573030.9386996784</v>
+        <v>699597.2810740274</v>
       </c>
     </row>
     <row r="13">
@@ -30877,28 +30877,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>463.7173634879614</v>
+        <v>565.9799062304207</v>
       </c>
       <c r="AB13" t="n">
-        <v>634.4785544904703</v>
+        <v>774.3986769756826</v>
       </c>
       <c r="AC13" t="n">
-        <v>573.9248117461432</v>
+        <v>700.4911541204921</v>
       </c>
       <c r="AD13" t="n">
-        <v>463717.3634879615</v>
+        <v>565979.9062304207</v>
       </c>
       <c r="AE13" t="n">
-        <v>634478.5544904703</v>
+        <v>774398.6769756826</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.270884162487656e-06</v>
+        <v>1.845538603217951e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24.30989583333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>573924.8117461432</v>
+        <v>700491.1541204921</v>
       </c>
     </row>
   </sheetData>
@@ -31174,28 +31174,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.0532564112362</v>
+        <v>394.4166189397278</v>
       </c>
       <c r="AB2" t="n">
-        <v>403.7048822528454</v>
+        <v>539.6582184665033</v>
       </c>
       <c r="AC2" t="n">
-        <v>365.1758548939939</v>
+        <v>488.1539955111261</v>
       </c>
       <c r="AD2" t="n">
-        <v>295053.2564112362</v>
+        <v>394416.6189397278</v>
       </c>
       <c r="AE2" t="n">
-        <v>403704.8822528454</v>
+        <v>539658.2184665033</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.49775553050331e-06</v>
+        <v>2.496669234509661e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.49739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>365175.8548939939</v>
+        <v>488153.9955111261</v>
       </c>
     </row>
   </sheetData>
@@ -31471,28 +31471,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>503.2395229611856</v>
+        <v>622.292296743852</v>
       </c>
       <c r="AB2" t="n">
-        <v>688.5545166763545</v>
+        <v>851.4477740034936</v>
       </c>
       <c r="AC2" t="n">
-        <v>622.8398399970962</v>
+        <v>770.1867934670557</v>
       </c>
       <c r="AD2" t="n">
-        <v>503239.5229611855</v>
+        <v>622292.2967438521</v>
       </c>
       <c r="AE2" t="n">
-        <v>688554.5166763546</v>
+        <v>851447.7740034936</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.182054999711544e-06</v>
+        <v>1.798977331300409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.77604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>622839.8399970962</v>
+        <v>770186.7934670558</v>
       </c>
     </row>
     <row r="3">
@@ -31577,28 +31577,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>421.908944619337</v>
+        <v>524.9913851043511</v>
       </c>
       <c r="AB3" t="n">
-        <v>577.2744313371528</v>
+        <v>718.3163740850645</v>
       </c>
       <c r="AC3" t="n">
-        <v>522.1801698200873</v>
+        <v>649.7612675057479</v>
       </c>
       <c r="AD3" t="n">
-        <v>421908.944619337</v>
+        <v>524991.3851043511</v>
       </c>
       <c r="AE3" t="n">
-        <v>577274.4313371528</v>
+        <v>718316.3740850645</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.336706389895064e-06</v>
+        <v>2.034342306079197e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.45572916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>522180.1698200873</v>
+        <v>649761.267505748</v>
       </c>
     </row>
     <row r="4">
@@ -31683,28 +31683,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>391.3686686519065</v>
+        <v>494.3657682823491</v>
       </c>
       <c r="AB4" t="n">
-        <v>535.4878784166297</v>
+        <v>676.4130540423436</v>
       </c>
       <c r="AC4" t="n">
-        <v>484.3816668625033</v>
+        <v>611.8571415162254</v>
       </c>
       <c r="AD4" t="n">
-        <v>391368.6686519065</v>
+        <v>494365.7682823491</v>
       </c>
       <c r="AE4" t="n">
-        <v>535487.8784166296</v>
+        <v>676413.0540423435</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.390373217980374e-06</v>
+        <v>2.116018207109038e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.46614583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>484381.6668625033</v>
+        <v>611857.1415162254</v>
       </c>
     </row>
     <row r="5">
@@ -31789,28 +31789,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>379.0427218369459</v>
+        <v>474.2679622007158</v>
       </c>
       <c r="AB5" t="n">
-        <v>518.6229742020051</v>
+        <v>648.9143491088255</v>
       </c>
       <c r="AC5" t="n">
-        <v>469.126325436081</v>
+        <v>586.9828743868874</v>
       </c>
       <c r="AD5" t="n">
-        <v>379042.7218369459</v>
+        <v>474267.9622007158</v>
       </c>
       <c r="AE5" t="n">
-        <v>518622.9742020052</v>
+        <v>648914.3491088254</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.410674642236599e-06</v>
+        <v>2.146915079114971e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.11458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>469126.325436081</v>
+        <v>586982.8743868874</v>
       </c>
     </row>
     <row r="6">
@@ -31895,28 +31895,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>379.1621715369215</v>
+        <v>474.3874119006915</v>
       </c>
       <c r="AB6" t="n">
-        <v>518.7864105512607</v>
+        <v>649.0777854580808</v>
       </c>
       <c r="AC6" t="n">
-        <v>469.2741636495479</v>
+        <v>587.1307126003543</v>
       </c>
       <c r="AD6" t="n">
-        <v>379162.1715369215</v>
+        <v>474387.4119006915</v>
       </c>
       <c r="AE6" t="n">
-        <v>518786.4105512607</v>
+        <v>649077.7854580808</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.414306428557854e-06</v>
+        <v>2.152442318765968e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.04947916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>469274.1636495478</v>
+        <v>587130.7126003543</v>
       </c>
     </row>
   </sheetData>
@@ -32192,28 +32192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>614.6950123546688</v>
+        <v>745.1839586025756</v>
       </c>
       <c r="AB2" t="n">
-        <v>841.0528343336811</v>
+        <v>1019.593567356083</v>
       </c>
       <c r="AC2" t="n">
-        <v>760.7839322499406</v>
+        <v>922.2849882961774</v>
       </c>
       <c r="AD2" t="n">
-        <v>614695.0123546688</v>
+        <v>745183.9586025756</v>
       </c>
       <c r="AE2" t="n">
-        <v>841052.834333681</v>
+        <v>1019593.567356083</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.051555405997711e-06</v>
+        <v>1.569878310969948e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.14583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>760783.9322499406</v>
+        <v>922284.9882961774</v>
       </c>
     </row>
     <row r="3">
@@ -32298,28 +32298,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>490.3706615468781</v>
+        <v>604.612416834743</v>
       </c>
       <c r="AB3" t="n">
-        <v>670.9467727552021</v>
+        <v>827.2573823305974</v>
       </c>
       <c r="AC3" t="n">
-        <v>606.9125544431547</v>
+        <v>748.3050988239928</v>
       </c>
       <c r="AD3" t="n">
-        <v>490370.6615468781</v>
+        <v>604612.416834743</v>
       </c>
       <c r="AE3" t="n">
-        <v>670946.7727552021</v>
+        <v>827257.3823305974</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.2299590933652e-06</v>
+        <v>1.836219083693714e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.62760416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>606912.5544431547</v>
+        <v>748305.0988239928</v>
       </c>
     </row>
     <row r="4">
@@ -32404,28 +32404,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>454.3335294810479</v>
+        <v>560.3238122698612</v>
       </c>
       <c r="AB4" t="n">
-        <v>621.6391788166723</v>
+        <v>766.6597596895904</v>
       </c>
       <c r="AC4" t="n">
-        <v>562.3108080664756</v>
+        <v>693.4908282385458</v>
       </c>
       <c r="AD4" t="n">
-        <v>454333.5294810479</v>
+        <v>560323.8122698611</v>
       </c>
       <c r="AE4" t="n">
-        <v>621639.1788166723</v>
+        <v>766659.7596895904</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.295665583974884e-06</v>
+        <v>1.934313006191525e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.28645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>562310.8080664756</v>
+        <v>693490.8282385458</v>
       </c>
     </row>
     <row r="5">
@@ -32510,28 +32510,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>430.1433719102753</v>
+        <v>536.2189060451092</v>
       </c>
       <c r="AB5" t="n">
-        <v>588.5411380339081</v>
+        <v>733.6783635594754</v>
       </c>
       <c r="AC5" t="n">
-        <v>532.3715978426263</v>
+        <v>663.6571302654089</v>
       </c>
       <c r="AD5" t="n">
-        <v>430143.3719102753</v>
+        <v>536218.9060451091</v>
       </c>
       <c r="AE5" t="n">
-        <v>588541.1380339081</v>
+        <v>733678.3635594754</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.328267273036964e-06</v>
+        <v>1.982984416435463e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.66145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>532371.5978426263</v>
+        <v>663657.1302654089</v>
       </c>
     </row>
     <row r="6">
@@ -32616,28 +32616,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>416.9088000426929</v>
+        <v>514.8182025330467</v>
       </c>
       <c r="AB6" t="n">
-        <v>570.4330129365785</v>
+        <v>704.3969768818661</v>
       </c>
       <c r="AC6" t="n">
-        <v>515.9916867896726</v>
+        <v>637.1703180356263</v>
       </c>
       <c r="AD6" t="n">
-        <v>416908.8000426929</v>
+        <v>514818.2025330467</v>
       </c>
       <c r="AE6" t="n">
-        <v>570433.0129365785</v>
+        <v>704396.9768818661</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.347838348723922e-06</v>
+        <v>2.012202284622024e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>515991.6867896726</v>
+        <v>637170.3180356263</v>
       </c>
     </row>
     <row r="7">
@@ -32722,28 +32722,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>408.1595675689917</v>
+        <v>506.0689700593454</v>
       </c>
       <c r="AB7" t="n">
-        <v>558.4619270771653</v>
+        <v>692.4258910224529</v>
       </c>
       <c r="AC7" t="n">
-        <v>505.1631045631573</v>
+        <v>626.341735809111</v>
       </c>
       <c r="AD7" t="n">
-        <v>408159.5675689917</v>
+        <v>506068.9700593454</v>
       </c>
       <c r="AE7" t="n">
-        <v>558461.9270771653</v>
+        <v>692425.8910224529</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.360038826497925e-06</v>
+        <v>2.030416508363003e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.08854166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>505163.1045631573</v>
+        <v>626341.735809111</v>
       </c>
     </row>
     <row r="8">
@@ -32828,28 +32828,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>408.9584918962431</v>
+        <v>506.8678943865967</v>
       </c>
       <c r="AB8" t="n">
-        <v>559.5550505877645</v>
+        <v>693.519014533052</v>
       </c>
       <c r="AC8" t="n">
-        <v>506.1519019001133</v>
+        <v>627.3305331460671</v>
       </c>
       <c r="AD8" t="n">
-        <v>408958.4918962431</v>
+        <v>506867.8943865967</v>
       </c>
       <c r="AE8" t="n">
-        <v>559555.0505877645</v>
+        <v>693519.014533052</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.361070207093253e-06</v>
+        <v>2.031956267483374e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.0625</v>
       </c>
       <c r="AH8" t="n">
-        <v>506151.9019001133</v>
+        <v>627330.5331460671</v>
       </c>
     </row>
   </sheetData>
